--- a/top_league_soccer/Excel/dados_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -109,33 +109,33 @@
     <t>Frankfurt</t>
   </si>
   <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>Hoffenheim</t>
+    <t>Augsburg</t>
   </si>
   <si>
     <t>Heidenheim</t>
   </si>
   <si>
+    <t>M'Gladbach</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>M'Gladbach</t>
-  </si>
-  <si>
     <t>FC Köln</t>
   </si>
   <si>
@@ -145,13 +145,19 @@
     <t>Darmstadt</t>
   </si>
   <si>
+    <t>1.8</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.8</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>2.0</t>
@@ -160,160 +166,172 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>6.4</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>5.9</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>64%</t>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>46%</t>
   </si>
   <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>63%</t>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.40</t>
   </si>
   <si>
     <t>3.17</t>
   </si>
   <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.45</t>
+    <t>3.67</t>
   </si>
   <si>
     <t>2.78</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.59</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>3.36</t>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>3.42</t>
   </si>
 </sst>
 </file>
@@ -711,16 +729,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -734,16 +752,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -754,19 +772,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -777,19 +795,19 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -803,16 +821,16 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -823,19 +841,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -846,19 +864,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -869,19 +887,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -892,19 +910,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -915,19 +933,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -938,19 +956,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -961,19 +979,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -984,19 +1002,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1007,19 +1025,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1030,19 +1048,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1053,19 +1071,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1076,19 +1094,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1099,19 +1117,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -112,15 +112,15 @@
     <t>Hoffenheim</t>
   </si>
   <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
     <t>Heidenheim</t>
   </si>
   <si>
@@ -145,90 +145,72 @@
     <t>Darmstadt</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
     <t>1.8</t>
   </si>
   <si>
+    <t>1.6</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>6.4</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>5.9</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
   </si>
   <si>
     <t>5.2</t>
   </si>
   <si>
+    <t>5.5</t>
+  </si>
+  <si>
     <t>3.7</t>
   </si>
   <si>
@@ -241,97 +223,88 @@
     <t>96%</t>
   </si>
   <si>
-    <t>83%</t>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>80%</t>
   </si>
   <si>
     <t>79%</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.50</t>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.76</t>
   </si>
   <si>
     <t>2.84</t>
   </si>
   <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
     <t>2.56</t>
   </si>
   <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>3.42</t>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>3.36</t>
   </si>
 </sst>
 </file>
@@ -729,16 +702,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -752,16 +725,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -775,16 +748,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -798,16 +771,16 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,19 +791,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,19 +814,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -864,19 +837,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,19 +860,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -913,16 +886,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,19 +906,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,19 +929,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,19 +952,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,19 +975,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1028,16 +1001,16 @@
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,19 +1021,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,19 +1044,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,19 +1067,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,19 +1090,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_bundesliga.xlsx
@@ -100,30 +100,30 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
     <t>Dortmund</t>
   </si>
   <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
     <t>Frankfurt</t>
   </si>
   <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>M'Gladbach</t>
   </si>
   <si>
@@ -133,178 +133,178 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Mainz</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
     <t>FC Köln</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.3</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
+    <t>2.9</t>
   </si>
   <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>7.5</t>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
+    <t>6.1</t>
+  </si>
+  <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.0</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>84%</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>83%</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>72%</t>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>67%</t>
   </si>
   <si>
     <t>60%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
     <t>43%</t>
   </si>
   <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>3.36</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.40</t>
   </si>
 </sst>
 </file>
@@ -702,16 +702,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -725,16 +725,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -748,16 +748,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -768,19 +768,19 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -791,19 +791,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -814,19 +814,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -837,19 +837,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -860,19 +860,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -883,19 +883,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -906,19 +906,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -929,19 +929,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -952,16 +952,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
@@ -975,19 +975,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1001,16 +1001,16 @@
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1021,19 +1021,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1044,19 +1044,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1067,19 +1067,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1090,16 +1090,16 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
         <v>96</v>

--- a/top_league_soccer/Excel/dados_bundesliga.xlsx
+++ b/top_league_soccer/Excel/dados_bundesliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -109,36 +109,36 @@
     <t>Frankfurt</t>
   </si>
   <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
     <t>Freiburg</t>
   </si>
   <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
     <t>M'Gladbach</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Mainz</t>
   </si>
   <si>
     <t>Union Berlin</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
     <t>FC Köln</t>
   </si>
   <si>
@@ -148,7 +148,16 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
   <si>
     <t>1.6</t>
@@ -157,154 +166,160 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.1</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>80%</t>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>85%</t>
   </si>
   <si>
     <t>97%</t>
   </si>
   <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
     <t>73%</t>
   </si>
   <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>70%</t>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>61%</t>
   </si>
   <si>
     <t>57%</t>
   </si>
   <si>
-    <t>67%</t>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>33%</t>
   </si>
   <si>
     <t>60%</t>
   </si>
   <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>3.40</t>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.52</t>
   </si>
 </sst>
 </file>
@@ -702,16 +717,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -725,16 +740,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -748,16 +763,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -771,16 +786,16 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -794,16 +809,16 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -817,16 +832,16 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -837,19 +852,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -860,19 +875,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -883,19 +898,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -906,19 +921,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -929,19 +944,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -952,19 +967,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -975,19 +990,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -998,19 +1013,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1021,19 +1036,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1044,19 +1059,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1070,16 +1085,16 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1090,19 +1105,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
